--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,71 @@
           <t>issue_type</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>review_result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1269f1fb-9c21-42a9-ae5e-c80f92622adc</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bk6qQGWRb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,37 +489,78 @@
       <c r="B2" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1269f1fb-9c21-42a9-ae5e-c80f92622adc</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bk6qQGWRb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>WRI</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1269f1fb-9c21-42a9-ae5e-c80f92622adc</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Bk6qQGWRb_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c8048836-24fe-4e27-95aa-c7cfb58ac155</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>rkc_hGb0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>The structure of the global policies used in the experiments should be mentioned somewhere.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,11 +530,7 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>APC</t>
@@ -563,6 +559,51 @@
       <c r="I3" t="inlineStr">
         <is>
           <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>does not provide any insight, i tried this, i tried that</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SUG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1a2deef4-16ae-43c8-afd3-8fd2e076505e</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>rJr4kfWCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Overall, the paper does not provide any insight beyond: i tried this, i tried that and this works better than that; a strong reject.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,51 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>By5SY2gA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,39 +616,80 @@
       <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>By5SY2gA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>DIS</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>WRI</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>By5SY2gA-_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SJCPLLpaW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,39 +657,80 @@
       <c r="B6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SJCPLLpaW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>DIS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>THE</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SJCPLLpaW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Needs Revision</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,37 +698,78 @@
       <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>DIS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>WRI</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SJ3dBGZ0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,11 +739,7 @@
       <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>DIS</t>
@@ -770,6 +766,51 @@
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not too surprisingly</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>afe80f3f-3501-40b4-a3d0-1ad1f86c76ec</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>r1BRfhiab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,51 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Why is this result not compared to in Table 1?</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,37 +825,78 @@
       <c r="B10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Why is this result not compared to in Table 1?</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>APC</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>RES</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>HyRnez-RW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Why is this result not compared to in Table 1?</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SJ3dBGZ0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -866,39 +866,80 @@
       <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SJ3dBGZ0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>APC</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>RES</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SJ3dBGZ0Z_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>afe80f3f-3501-40b4-a3d0-1ad1f86c76ec</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>r1BRfhiab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,39 +907,80 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>afe80f3f-3501-40b4-a3d0-1ad1f86c76ec</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>r1BRfhiab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>SMY</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>RES</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>afe80f3f-3501-40b4-a3d0-1ad1f86c76ec</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>r1BRfhiab_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Needs Revision</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>77474e59-42ef-43e4-850b-a07d6b41a266</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syg-YfWCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>You absolutely know this but you hide these results.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,37 +948,80 @@
       <c r="B13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>77474e59-42ef-43e4-850b-a07d6b41a266</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syg-YfWCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>You absolutely know this but you hide these results.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SMY</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>77474e59-42ef-43e4-850b-a07d6b41a266</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Syg-YfWCW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>You absolutely know this but you hide these results.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3a6bf25f-9f71-48b7-a40b-7e968e5f9337</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ry-TW-WAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>I suggest to change it to e.g. 'from the true to the approximate posterior' to avoid confusion.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,16 +986,10 @@
           <t>parisk</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>DIS</t>
@@ -1024,6 +1018,53 @@
       <c r="I14" t="inlineStr">
         <is>
           <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>well carried through</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ea04c829-c996-4167-8585-03efb193cd41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ByOExmWAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The experiments were well carried through and very thorough.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Needs Revision</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,10 +1027,8 @@
           <t>parisk</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B15" t="n">
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1065,6 +1063,53 @@
       <c r="I15" t="inlineStr">
         <is>
           <t>Needs Revision</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4cbdf296-0ef7-4a60-9d08-bf70fb941ab3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SJTB5GZCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>The paper does not sufficiently discuss and compare the relevant neuroscience literature and related work.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/reviews/parisk_20240725_031640.xlsx
+++ b/reviews/parisk_20240725_031640.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,16 +1072,10 @@
           <t>parisk</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>DIS</t>
@@ -1108,6 +1102,53 @@
         </is>
       </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>parisk</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>show through several experiments</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9cb2103f-10a8-4188-b35f-b6e342d90889</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>rJwelMbR-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>The authors show through several experiments that the divide and conquer (DnC) technique can solve more complex tasks than can be solved with conventional policy gradient methods (TRPO is used as the baseline).</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
